--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Hotel Index</t>
   </si>
@@ -57,8 +58,10 @@
     <t>Price ( Euro )</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Cost for Each Hotel ( €)
-</t>
+    <t>LP Model</t>
+  </si>
+  <si>
+    <t>(I)LP Model</t>
   </si>
 </sst>
 </file>
@@ -2204,15 +2207,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2239,16 +2242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2772,43 +2775,43 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>B2*B5</f>
+        <f t="shared" ref="B6:K6" si="0">B2*B5</f>
         <v>3115</v>
       </c>
       <c r="C6">
-        <f>C2*C5</f>
+        <f t="shared" si="0"/>
         <v>2970</v>
       </c>
       <c r="D6">
-        <f>D2*D5</f>
+        <f t="shared" si="0"/>
         <v>714</v>
       </c>
       <c r="E6">
-        <f>E2*E5</f>
+        <f t="shared" si="0"/>
         <v>1680</v>
       </c>
       <c r="F6">
-        <f>F2*F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>G2*G5</f>
+        <f t="shared" si="0"/>
         <v>1880</v>
       </c>
       <c r="H6">
-        <f>H2*H5</f>
+        <f t="shared" si="0"/>
         <v>1950</v>
       </c>
       <c r="I6">
-        <f>I2*I5</f>
+        <f t="shared" si="0"/>
         <v>980</v>
       </c>
       <c r="J6">
-        <f>J2*J5</f>
+        <f t="shared" si="0"/>
         <v>1550</v>
       </c>
       <c r="K6">
-        <f>K2*K5</f>
+        <f t="shared" si="0"/>
         <v>1368</v>
       </c>
       <c r="L6">
@@ -2818,43 +2821,43 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>B3*B5</f>
+        <f t="shared" ref="B7:K7" si="1">B3*B5</f>
         <v>273</v>
       </c>
       <c r="C7">
-        <f>C3*C5</f>
+        <f t="shared" si="1"/>
         <v>249.00000000000003</v>
       </c>
       <c r="D7">
-        <f>D3*D5</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="E7">
-        <f>E3*E5</f>
+        <f t="shared" si="1"/>
         <v>130.5</v>
       </c>
       <c r="F7">
-        <f>F3*F5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G3*G5</f>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="H7">
-        <f>H3*H5</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="I7">
-        <f>I3*I5</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="J7">
-        <f>J3*J5</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="K7">
-        <f>K3*K5</f>
+        <f t="shared" si="1"/>
         <v>75.600000000000009</v>
       </c>
       <c r="L7">
@@ -2874,10 +2877,374 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1">
+        <v>143</v>
+      </c>
+      <c r="G2" s="1">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1">
+        <v>130</v>
+      </c>
+      <c r="I2" s="1">
+        <v>98</v>
+      </c>
+      <c r="J2" s="1">
+        <v>155</v>
+      </c>
+      <c r="K2" s="1">
+        <v>152</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>185</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>30</v>
+      </c>
+      <c r="P3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>150</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="P4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3115</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2970</v>
+      </c>
+      <c r="D5" s="1">
+        <v>714</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1680</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1880</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1950</v>
+      </c>
+      <c r="I5" s="1">
+        <v>980</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1550</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1368</v>
+      </c>
+      <c r="L5" s="1">
+        <v>16207</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>20</v>
+      </c>
+      <c r="P7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>9</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1">
+        <f>SUM(O2:O11)</f>
+        <v>150</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUM(P2:P11)</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2998,9 +3365,7 @@
       <c r="L3" s="1">
         <v>185</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3079,6 +3444,36 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.75</v>
+      </c>
       <c r="M6">
         <v>8.3006666666666664</v>
       </c>
